--- a/Documentation/Tables & Charts/Flow Chart Stuff.xlsx
+++ b/Documentation/Tables & Charts/Flow Chart Stuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>is opened</a:t>
+            <a:t>Opens</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -1123,9 +1123,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Start Game"</a:t>
@@ -1490,7 +1491,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Game closes</a:t>
+            <a:t>Game Closes</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1540,9 +1541,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Exit Game"</a:t>
@@ -1642,9 +1644,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Load Game"</a:t>
@@ -1697,9 +1700,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Exit to Main Menu"</a:t>
@@ -1863,16 +1867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1881,7 +1885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="5334000"/>
+          <a:off x="10160000" y="7404100"/>
           <a:ext cx="1841500" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1904,9 +1908,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Exit Game"</a:t>
@@ -1919,15 +1924,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1936,7 +1941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5613400" y="3606800"/>
+          <a:off x="5575300" y="3759200"/>
           <a:ext cx="1841500" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1959,9 +1964,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Delete</a:t>
@@ -2094,15 +2100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2113,8 +2119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7112000" y="7772400"/>
-          <a:ext cx="1130300" cy="1003300"/>
+          <a:off x="7175500" y="7772400"/>
+          <a:ext cx="1066800" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2144,15 +2150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2161,7 +2167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791200" y="8775700"/>
+          <a:off x="5803900" y="8686800"/>
           <a:ext cx="1371600" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2245,9 +2251,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects "Save Game" OR Level is completed</a:t>
@@ -2259,10 +2266,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -2273,14 +2280,12 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="118" name="Straight Connector 117"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="42" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8242300" y="7772400"/>
-          <a:ext cx="1384300" cy="965200"/>
+          <a:off x="8394700" y="7785100"/>
+          <a:ext cx="1231900" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2455,9 +2460,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Game finished</a:t>
@@ -2469,16 +2475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2487,7 +2493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="2667000"/>
+          <a:off x="4927600" y="2971800"/>
           <a:ext cx="1955800" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2510,9 +2516,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Player selects</a:t>
@@ -2529,34 +2536,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Straight Connector 129"/>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3517900" y="3263900"/>
+          <a:ext cx="3898900" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="7" idx="1"/>
+          <a:endCxn id="125" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3479800" y="3136900"/>
-          <a:ext cx="4102100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:xfrm flipH="1">
+          <a:off x="3517900" y="3263900"/>
+          <a:ext cx="12700" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle" w="lg"/>
-          <a:tailEnd type="triangle" w="lg"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2578,35 +2631,241 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Straight Connector 133"/>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7416800" y="3327400"/>
+          <a:ext cx="177800" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8394700" y="4559300"/>
+          <a:ext cx="2108200" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8636000" y="5168900"/>
+          <a:ext cx="1054100" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No Save File Exists</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="8432800"/>
+          <a:ext cx="787400" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Level completed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="125" idx="0"/>
+          <a:stCxn id="80" idx="1"/>
+          <a:endCxn id="110" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3517900" y="3162300"/>
-          <a:ext cx="0" cy="4064000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7175500" y="9017000"/>
+          <a:ext cx="2438400" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle" w="lg"/>
-          <a:tailEnd type="triangle" w="lg"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2953,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2974,7 +3233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Tables & Charts/Flow Chart Stuff.xlsx
+++ b/Documentation/Tables & Charts/Flow Chart Stuff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,8 +196,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,7 +285,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -270,6 +300,21 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -284,6 +329,21 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3212,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3233,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
